--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -524,10 +524,10 @@
         <x:v>1140</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1381</x:v>
+        <x:v>1384</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -628,7 +628,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>89</x:v>
@@ -657,7 +657,7 @@
         <x:v>336</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -677,10 +677,10 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>516</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,7 +489,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>198</x:v>
@@ -518,13 +518,13 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1140</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1384</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>783</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>48</x:v>
@@ -631,7 +631,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,13 +648,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>296</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>197</x:v>
@@ -674,16 +674,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>816</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>870</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -836,7 +836,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>160</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,16 +489,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>198</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>154</x:v>
@@ -521,10 +521,10 @@
         <x:v>646</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1385</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>783</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>48</x:v>
@@ -602,7 +602,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>29</x:v>
@@ -651,10 +651,10 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>197</x:v>
@@ -677,13 +677,13 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>816</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>871</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -775,7 +775,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>217</x:v>
@@ -833,7 +833,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>365</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,13 +495,13 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>378</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>646</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1142</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1387</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>783</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -602,7 +602,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>29</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -651,13 +651,13 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>817</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>871</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -804,7 +804,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>94</x:v>
@@ -833,10 +833,10 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>160</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>365</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>156</x:v>
@@ -518,10 +518,10 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>1389</x:v>
@@ -654,7 +654,7 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>198</x:v>
@@ -680,7 +680,7 @@
         <x:v>817</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>519</x:v>
@@ -784,7 +784,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>33</x:v>
@@ -833,13 +833,13 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>366</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -524,7 +524,7 @@
         <x:v>1149</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1389</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>785</x:v>
@@ -654,7 +654,7 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>198</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>437</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>875</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -807,10 +807,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>33</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -518,7 +518,7 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>1149</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>88</x:v>
@@ -628,7 +628,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>91</x:v>
@@ -651,7 +651,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>340</x:v>
@@ -674,13 +674,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>818</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>520</x:v>
@@ -830,7 +830,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>322</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,7 +495,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>379</x:v>
@@ -518,13 +518,13 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1390</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>785</x:v>
@@ -602,7 +602,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>29</x:v>
@@ -677,10 +677,10 @@
         <x:v>440</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>520</x:v>
@@ -781,7 +781,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>31</x:v>
@@ -830,13 +830,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>322</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>161</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1153</x:v>
+        <x:v>1563</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1393</x:v>
+        <x:v>1889</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>785</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,10 +541,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>2</x:v>
@@ -567,19 +567,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>440</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -700,13 +700,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="n">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -726,10 +726,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>2</x:v>
@@ -749,16 +749,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>8</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,19 +801,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>211</x:v>
@@ -521,13 +521,13 @@
         <x:v>930</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1563</x:v>
+        <x:v>1568</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1889</x:v>
+        <x:v>1894</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>975</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -628,10 +628,10 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>444</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1081</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1184</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -778,7 +778,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>43</x:v>
@@ -807,10 +807,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>41</x:v>
@@ -830,13 +830,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>215</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,7 +492,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>492</x:v>
@@ -521,7 +521,7 @@
         <x:v>930</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1568</x:v>
+        <x:v>1569</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>1894</x:v>
@@ -628,7 +628,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>128</x:v>
@@ -674,16 +674,16 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1084</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1187</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>460</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>492</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>211</x:v>
@@ -518,13 +518,13 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1569</x:v>
+        <x:v>1570</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1894</x:v>
+        <x:v>1896</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>983</x:v>
@@ -596,13 +596,13 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>40</x:v>
@@ -622,7 +622,7 @@
         <x:v>259</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>208</x:v>
@@ -677,13 +677,13 @@
         <x:v>594</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>211</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>931</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1570</x:v>
+        <x:v>1569</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>1896</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>983</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -622,16 +622,16 @@
         <x:v>259</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>208</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -651,10 +651,10 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>444</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>267</x:v>
@@ -677,7 +677,7 @@
         <x:v>594</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1087</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1188</x:v>
@@ -807,10 +807,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>41</x:v>
@@ -833,13 +833,13 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>460</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,7 +492,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>492</x:v>
@@ -521,7 +521,7 @@
         <x:v>931</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1569</x:v>
+        <x:v>1570</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>1896</x:v>
@@ -674,13 +674,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1090</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>705</x:v>
@@ -833,13 +833,13 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>460</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -778,7 +778,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>43</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,16 +489,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>492</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>211</x:v>
@@ -521,13 +521,13 @@
         <x:v>931</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1570</x:v>
+        <x:v>1572</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1896</x:v>
+        <x:v>1897</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>986</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -602,7 +602,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>40</x:v>
@@ -651,7 +651,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>448</x:v>
@@ -683,7 +683,7 @@
         <x:v>1190</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -833,7 +833,7 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>460</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>266</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>518</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,13 +518,13 @@
         <x:v>344</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>931</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1572</x:v>
+        <x:v>1575</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1897</x:v>
+        <x:v>1898</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>987</x:v>
@@ -602,10 +602,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,16 +619,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>118</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>129</x:v>
@@ -677,13 +677,13 @@
         <x:v>595</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1092</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1190</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -813,7 +813,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -836,7 +836,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>219</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>212</x:v>
@@ -521,13 +521,13 @@
         <x:v>932</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1575</x:v>
+        <x:v>1576</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1898</x:v>
+        <x:v>1899</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>987</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>66</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>118</x:v>
@@ -628,10 +628,10 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -654,7 +654,7 @@
         <x:v>405</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>267</x:v>
@@ -674,7 +674,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>1093</x:v>
@@ -683,7 +683,7 @@
         <x:v>1194</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -778,7 +778,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>43</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,13 +495,13 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,16 +518,16 @@
         <x:v>344</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>932</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1576</x:v>
+        <x:v>1584</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1899</x:v>
+        <x:v>1906</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>988</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -576,7 +576,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>4</x:v>
@@ -625,10 +625,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>130</x:v>
@@ -651,13 +651,13 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>449</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -677,13 +677,13 @@
         <x:v>598</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1093</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -775,7 +775,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>280</x:v>
@@ -784,7 +784,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -839,7 +839,7 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>215</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1584</x:v>
+        <x:v>1590</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1906</x:v>
+        <x:v>1916</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>991</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -599,7 +599,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>116</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,16 +648,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>598</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1097</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1195</x:v>
+        <x:v>1202</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -749,16 +749,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>8</x:v>
@@ -775,16 +775,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -827,16 +827,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>425</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>221</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>1590</x:v>
+        <x:v>2087</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>1916</x:v>
+        <x:v>2530</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>996</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,19 +541,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
@@ -567,16 +567,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>4</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>602</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1098</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1202</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -700,13 +700,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -729,10 +729,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>2</x:v>
@@ -749,19 +749,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,19 +801,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1272</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2087</x:v>
+        <x:v>2095</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2530</x:v>
+        <x:v>2539</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1372</x:v>
+        <x:v>1375</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>87</x:v>
@@ -602,10 +602,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,13 +619,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>316</x:v>
@@ -651,10 +651,10 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>331</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>752</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1412</x:v>
+        <x:v>1415</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1523</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>902</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>24</x:v>
@@ -775,10 +775,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>65</x:v>
@@ -787,7 +787,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,13 +801,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>207</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>506</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,13 +489,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>347</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>667</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>1279</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2095</x:v>
+        <x:v>2097</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2539</x:v>
+        <x:v>2544</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1375</x:v>
+        <x:v>1377</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -602,7 +602,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>55</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>169</x:v>
@@ -631,7 +631,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -651,13 +651,13 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>582</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,16 +671,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>754</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1415</x:v>
+        <x:v>1417</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1523</x:v>
+        <x:v>1528</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>906</x:v>
@@ -778,7 +778,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>65</x:v>
@@ -810,7 +810,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>54</x:v>
@@ -833,7 +833,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>548</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>642</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>285</x:v>
@@ -518,10 +518,10 @@
         <x:v>444</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1279</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2097</x:v>
+        <x:v>2098</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>2544</x:v>
@@ -596,7 +596,7 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>118</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>169</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>316</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -677,7 +677,7 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1417</x:v>
+        <x:v>1416</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1528</x:v>
@@ -784,7 +784,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>58</x:v>
@@ -836,7 +836,7 @@
         <x:v>509</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>548</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>260</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,10 +495,10 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>285</x:v>
@@ -515,13 +515,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1280</x:v>
+        <x:v>1281</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2098</x:v>
+        <x:v>2099</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>2544</x:v>
@@ -599,7 +599,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>156</x:v>
@@ -628,7 +628,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>199</x:v>
@@ -677,10 +677,10 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1416</x:v>
+        <x:v>1417</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1528</x:v>
+        <x:v>1530</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>906</x:v>
@@ -807,7 +807,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>208</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -518,16 +518,16 @@
         <x:v>445</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1281</x:v>
+        <x:v>1282</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>2099</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2544</x:v>
+        <x:v>2545</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1377</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -631,7 +631,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,10 +648,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>582</x:v>
@@ -677,10 +677,10 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1417</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1530</x:v>
+        <x:v>1531</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>906</x:v>
@@ -703,7 +703,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>10</x:v>
@@ -833,7 +833,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>551</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,16 +489,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>643</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>285</x:v>
@@ -515,13 +515,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1282</x:v>
+        <x:v>1283</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2099</x:v>
+        <x:v>2100</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>2545</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>169</x:v>
@@ -674,13 +674,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>756</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>1418</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1531</x:v>
+        <x:v>1532</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>906</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,7 +492,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>643</x:v>
@@ -521,10 +521,10 @@
         <x:v>1283</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2100</x:v>
+        <x:v>2101</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2545</x:v>
+        <x:v>2546</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1378</x:v>
@@ -654,7 +654,7 @@
         <x:v>496</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>332</x:v>
@@ -752,7 +752,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,10 +495,10 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>643</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>285</x:v>
@@ -521,10 +521,10 @@
         <x:v>1283</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2101</x:v>
+        <x:v>2102</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2546</x:v>
+        <x:v>2547</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1378</x:v>
@@ -544,7 +544,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>3</x:v>
@@ -625,7 +625,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>317</x:v>
@@ -677,7 +677,7 @@
         <x:v>758</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1418</x:v>
+        <x:v>1420</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1532</x:v>
@@ -836,7 +836,7 @@
         <x:v>510</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>260</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,10 +492,10 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>671</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>446</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1283</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2102</x:v>
+        <x:v>2106</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2547</x:v>
+        <x:v>2551</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1378</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,13 +593,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>156</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,16 +648,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>496</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1420</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1532</x:v>
+        <x:v>1536</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>906</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -706,7 +706,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>24</x:v>
@@ -775,7 +775,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>357</x:v>
@@ -810,7 +810,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>54</x:v>
@@ -827,7 +827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>255</x:v>
@@ -836,10 +836,10 @@
         <x:v>510</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1285</x:v>
+        <x:v>1529</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2106</x:v>
+        <x:v>2509</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>2551</x:v>
+        <x:v>3030</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1381</x:v>
+        <x:v>1673</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,13 +541,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>2</x:v>
@@ -567,16 +567,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>4</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>760</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1422</x:v>
+        <x:v>1709</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1536</x:v>
+        <x:v>1857</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>910</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -700,13 +700,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -729,7 +729,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>3</x:v>
@@ -749,19 +749,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,19 +801,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>510</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,10 +495,10 @@
         <x:v>407</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>332</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>510</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1529</x:v>
+        <x:v>1530</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2509</x:v>
+        <x:v>2511</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3030</x:v>
+        <x:v>3034</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1673</x:v>
+        <x:v>1677</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -596,13 +596,13 @@
         <x:v>289</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>138</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>60</x:v>
@@ -625,13 +625,13 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -654,10 +654,10 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,13 +674,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1709</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1857</x:v>
+        <x:v>1862</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1094</x:v>
@@ -752,7 +752,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>29</x:v>
@@ -778,13 +778,13 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>74</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>69</x:v>
@@ -807,10 +807,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>70</x:v>
@@ -830,13 +830,13 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>574</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>289</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>762</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,16 +518,16 @@
         <x:v>513</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1530</x:v>
+        <x:v>1531</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2511</x:v>
+        <x:v>2512</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3034</x:v>
+        <x:v>3036</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1677</x:v>
+        <x:v>1678</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -599,10 +599,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>60</x:v>
@@ -628,7 +628,7 @@
         <x:v>332</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>251</x:v>
@@ -654,10 +654,10 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>937</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1862</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1094</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -749,13 +749,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>33</x:v>
@@ -775,10 +775,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>74</x:v>
@@ -807,7 +807,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>254</x:v>
@@ -833,10 +833,10 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>289</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>762</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>820</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>334</x:v>
@@ -518,16 +518,16 @@
         <x:v>513</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1531</x:v>
+        <x:v>1532</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2512</x:v>
+        <x:v>2516</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3036</x:v>
+        <x:v>3043</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1678</x:v>
+        <x:v>1679</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -544,7 +544,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>4</x:v>
@@ -567,13 +567,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>11</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>104</x:v>
@@ -602,10 +602,10 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -622,13 +622,13 @@
         <x:v>382</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>332</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>251</x:v>
@@ -657,7 +657,7 @@
         <x:v>720</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -677,13 +677,13 @@
         <x:v>938</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1712</x:v>
+        <x:v>1714</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1862</x:v>
+        <x:v>1863</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -752,13 +752,13 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>17</x:v>
@@ -784,7 +784,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>69</x:v>
@@ -807,10 +807,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>70</x:v>
@@ -833,10 +833,10 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>655</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>289</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,10 +492,10 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>821</x:v>
@@ -515,16 +515,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1532</x:v>
+        <x:v>1535</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2516</x:v>
+        <x:v>2519</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3043</x:v>
+        <x:v>3044</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1679</x:v>
@@ -541,7 +541,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>8</x:v>
@@ -567,10 +567,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>10</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>215</x:v>
@@ -654,7 +654,7 @@
         <x:v>611</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>389</x:v>
@@ -677,10 +677,10 @@
         <x:v>938</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1714</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1863</x:v>
+        <x:v>1864</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1096</x:v>
@@ -833,7 +833,7 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>658</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>764</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>334</x:v>
@@ -521,13 +521,13 @@
         <x:v>1535</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2519</x:v>
+        <x:v>2522</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3044</x:v>
+        <x:v>3048</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1679</x:v>
+        <x:v>1680</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>215</x:v>
@@ -628,10 +628,10 @@
         <x:v>332</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -651,13 +651,13 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>611</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>721</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1715</x:v>
+        <x:v>1717</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1864</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1096</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -749,7 +749,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>231</x:v>
@@ -778,7 +778,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>74</x:v>
@@ -801,7 +801,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>74</x:v>
@@ -827,7 +827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>298</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>764</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>822</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>334</x:v>
@@ -518,16 +518,16 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1535</x:v>
+        <x:v>1537</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2522</x:v>
+        <x:v>2526</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3048</x:v>
+        <x:v>3052</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1680</x:v>
+        <x:v>1682</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -599,7 +599,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>200</x:v>
@@ -622,7 +622,7 @@
         <x:v>384</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>332</x:v>
@@ -631,7 +631,7 @@
         <x:v>414</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -651,13 +651,13 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,10 +674,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>942</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1717</x:v>
+        <x:v>1719</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>1864</x:v>
@@ -706,7 +706,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -827,7 +827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>298</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,7 +495,7 @@
         <x:v>411</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>824</x:v>
@@ -518,16 +518,16 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1537</x:v>
+        <x:v>1539</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2526</x:v>
+        <x:v>2527</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3052</x:v>
+        <x:v>3054</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1682</x:v>
+        <x:v>1684</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -602,7 +602,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>62</x:v>
@@ -628,10 +628,10 @@
         <x:v>332</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -651,13 +651,13 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>944</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>1719</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1864</x:v>
+        <x:v>1867</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1098</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -706,7 +706,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -807,7 +807,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>255</x:v>
@@ -836,7 +836,7 @@
         <x:v>577</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>289</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,7 +495,7 @@
         <x:v>411</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>824</x:v>
@@ -622,7 +622,7 @@
         <x:v>384</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>332</x:v>
@@ -677,13 +677,13 @@
         <x:v>945</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1719</x:v>
+        <x:v>1722</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1867</x:v>
+        <x:v>1868</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1097</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>768</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>824</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,13 +518,13 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1539</x:v>
+        <x:v>1540</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2529</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3054</x:v>
+        <x:v>3055</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1684</x:v>
@@ -573,7 +573,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>11</x:v>
@@ -593,13 +593,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>199</x:v>
@@ -631,7 +631,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -651,13 +651,13 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>724</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,13 +674,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>945</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1722</x:v>
+        <x:v>1724</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1868</x:v>
+        <x:v>1869</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1098</x:v>
@@ -706,7 +706,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -775,7 +775,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>460</x:v>
@@ -810,7 +810,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>70</x:v>
@@ -836,7 +836,7 @@
         <x:v>577</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>289</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,13 +495,13 @@
         <x:v>411</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>825</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -521,13 +521,13 @@
         <x:v>1540</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2529</x:v>
+        <x:v>2530</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3055</x:v>
+        <x:v>3056</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1684</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -628,7 +628,7 @@
         <x:v>332</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>253</x:v>
@@ -648,7 +648,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>616</x:v>
@@ -677,13 +677,13 @@
         <x:v>947</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1724</x:v>
+        <x:v>1727</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1869</x:v>
+        <x:v>1872</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1098</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -758,7 +758,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>17</x:v>
@@ -778,10 +778,10 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>72</x:v>
@@ -833,13 +833,13 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>660</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,16 +492,16 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>770</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>825</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,13 +518,13 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1540</x:v>
+        <x:v>1541</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2530</x:v>
+        <x:v>2532</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3056</x:v>
+        <x:v>3055</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1686</x:v>
@@ -654,7 +654,7 @@
         <x:v>616</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>393</x:v>
@@ -680,7 +680,7 @@
         <x:v>1727</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1872</x:v>
+        <x:v>1874</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1099</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,7 +495,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>824</x:v>
@@ -518,16 +518,16 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1541</x:v>
+        <x:v>1543</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2532</x:v>
+        <x:v>2535</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3055</x:v>
+        <x:v>3056</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1689</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -570,7 +570,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>11</x:v>
@@ -599,7 +599,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>199</x:v>
@@ -622,16 +622,16 @@
         <x:v>384</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>414</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -654,10 +654,10 @@
         <x:v>616</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1727</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1874</x:v>
+        <x:v>1876</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -732,7 +732,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>2</x:v>
@@ -778,7 +778,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>75</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>771</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>824</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>335</x:v>
@@ -518,16 +518,16 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1543</x:v>
+        <x:v>1546</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2535</x:v>
+        <x:v>2539</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3056</x:v>
+        <x:v>3061</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1689</x:v>
+        <x:v>1691</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>216</x:v>
@@ -628,10 +628,10 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -654,10 +654,10 @@
         <x:v>616</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -677,13 +677,13 @@
         <x:v>948</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1728</x:v>
+        <x:v>1730</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1876</x:v>
+        <x:v>1878</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1102</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -752,7 +752,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>31</x:v>
@@ -775,13 +775,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>463</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>72</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,7 +495,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>825</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>1546</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2539</x:v>
+        <x:v>2541</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3061</x:v>
+        <x:v>3065</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1691</x:v>
+        <x:v>1692</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -544,7 +544,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>4</x:v>
@@ -596,16 +596,16 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>143</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,16 +619,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>335</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>256</x:v>
@@ -654,7 +654,7 @@
         <x:v>616</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>397</x:v>
@@ -677,13 +677,13 @@
         <x:v>948</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1730</x:v>
+        <x:v>1732</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1878</x:v>
+        <x:v>1881</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1104</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>31</x:v>
@@ -775,10 +775,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>76</x:v>
@@ -839,7 +839,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>825</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1546</x:v>
+        <x:v>1835</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>2541</x:v>
+        <x:v>3028</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3065</x:v>
+        <x:v>3675</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>1692</x:v>
+        <x:v>2024</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,19 +541,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
@@ -567,19 +567,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>616</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>726</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>948</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1732</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1881</x:v>
+        <x:v>2178</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1105</x:v>
+        <x:v>1295</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -703,10 +703,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -726,13 +726,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>2</x:v>
@@ -749,19 +749,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,19 +801,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>660</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -524,10 +524,10 @@
         <x:v>3028</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3675</x:v>
+        <x:v>3676</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2024</x:v>
+        <x:v>2025</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -625,7 +625,7 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>507</x:v>
@@ -657,7 +657,7 @@
         <x:v>868</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2014</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>2178</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1295</x:v>
+        <x:v>1297</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -807,7 +807,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>290</x:v>
@@ -830,7 +830,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>642</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>921</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>987</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>391</x:v>
@@ -518,13 +518,13 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1835</x:v>
+        <x:v>1836</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3028</x:v>
+        <x:v>3031</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3676</x:v>
+        <x:v>3680</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>2025</x:v>
@@ -651,13 +651,13 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>868</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,13 +674,13 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1143</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2015</x:v>
+        <x:v>2017</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2178</x:v>
+        <x:v>2182</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1297</x:v>
@@ -755,13 +755,13 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -839,7 +839,7 @@
         <x:v>748</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>921</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>990</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,16 +518,16 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1836</x:v>
+        <x:v>1837</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3031</x:v>
+        <x:v>3033</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3680</x:v>
+        <x:v>3687</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2025</x:v>
+        <x:v>2028</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -599,7 +599,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>239</x:v>
@@ -619,16 +619,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="n">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="n">
         <x:v>411</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>410</x:v>
-      </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>314</x:v>
@@ -651,13 +651,13 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>868</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,13 +674,13 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1144</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>2017</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2182</x:v>
+        <x:v>2186</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1297</x:v>
@@ -752,7 +752,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>40</x:v>
@@ -778,7 +778,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>610</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>96</x:v>
@@ -830,13 +830,13 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>642</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>748</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>344</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>921</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,16 +518,16 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1837</x:v>
+        <x:v>1839</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3033</x:v>
+        <x:v>3034</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3687</x:v>
+        <x:v>3688</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2028</x:v>
+        <x:v>2030</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -619,16 +619,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>411</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>314</x:v>
@@ -651,13 +651,13 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>868</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2017</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2186</x:v>
+        <x:v>2187</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1297</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -752,10 +752,10 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>43</x:v>
@@ -778,7 +778,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>96</x:v>
@@ -836,7 +836,7 @@
         <x:v>642</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>344</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,10 +495,10 @@
         <x:v>497</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>994</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>395</x:v>
@@ -518,16 +518,16 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1839</x:v>
+        <x:v>1841</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3034</x:v>
+        <x:v>3036</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3688</x:v>
+        <x:v>3693</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2030</x:v>
+        <x:v>2032</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>129</x:v>
@@ -631,7 +631,7 @@
         <x:v>509</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1147</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2018</x:v>
+        <x:v>2020</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2187</x:v>
+        <x:v>2190</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1299</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -778,10 +778,10 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>96</x:v>
@@ -807,7 +807,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>290</x:v>
@@ -833,10 +833,10 @@
         <x:v>354</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>642</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>344</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,16 +492,16 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>922</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>995</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -524,10 +524,10 @@
         <x:v>3036</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3693</x:v>
+        <x:v>3698</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2032</x:v>
+        <x:v>2033</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -570,7 +570,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>13</x:v>
@@ -599,7 +599,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>239</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>273</x:v>
@@ -631,7 +631,7 @@
         <x:v>509</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -674,13 +674,13 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2020</x:v>
+        <x:v>2021</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2190</x:v>
+        <x:v>2192</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1302</x:v>
@@ -703,7 +703,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>15</x:v>
@@ -752,7 +752,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>41</x:v>
@@ -778,7 +778,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>97</x:v>
@@ -833,7 +833,7 @@
         <x:v>354</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>755</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,7 +495,7 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>923</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>999</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1841</x:v>
+        <x:v>1842</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3036</x:v>
+        <x:v>3037</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3698</x:v>
+        <x:v>3702</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2033</x:v>
+        <x:v>2036</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -599,7 +599,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>239</x:v>
@@ -622,7 +622,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>411</x:v>
@@ -631,7 +631,7 @@
         <x:v>509</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,7 +648,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>712</x:v>
@@ -674,16 +674,16 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2021</x:v>
+        <x:v>2022</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2192</x:v>
+        <x:v>2193</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1302</x:v>
+        <x:v>1306</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -778,13 +778,13 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>97</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>80</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>924</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>999</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -521,13 +521,13 @@
         <x:v>1842</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3037</x:v>
+        <x:v>3039</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3702</x:v>
+        <x:v>3704</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2036</x:v>
+        <x:v>2038</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>129</x:v>
@@ -631,7 +631,7 @@
         <x:v>509</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -677,13 +677,13 @@
         <x:v>1151</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2022</x:v>
+        <x:v>2023</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>2193</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1306</x:v>
+        <x:v>1307</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -778,7 +778,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>97</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,13 +495,13 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1001</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,10 +515,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1842</x:v>
+        <x:v>1843</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>3039</x:v>
@@ -527,7 +527,7 @@
         <x:v>3704</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2038</x:v>
+        <x:v>2039</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -657,7 +657,7 @@
         <x:v>868</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2023</x:v>
+        <x:v>2024</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>2193</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1307</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -706,7 +706,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -830,13 +830,13 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>645</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>344</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>926</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1001</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>398</x:v>
@@ -518,16 +518,16 @@
         <x:v>593</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1843</x:v>
+        <x:v>1844</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3039</x:v>
+        <x:v>3040</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3704</x:v>
+        <x:v>3706</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2039</x:v>
+        <x:v>2042</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -651,13 +651,13 @@
         <x:v>380</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -677,10 +677,10 @@
         <x:v>1152</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2024</x:v>
+        <x:v>2027</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2193</x:v>
+        <x:v>2197</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1311</x:v>
@@ -703,7 +703,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>16</x:v>
@@ -752,7 +752,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>41</x:v>
@@ -784,7 +784,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>80</x:v>
@@ -827,13 +827,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>756</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,10 +495,10 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>926</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1002</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>398</x:v>
@@ -521,13 +521,13 @@
         <x:v>1844</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3040</x:v>
+        <x:v>3041</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3706</x:v>
+        <x:v>3709</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2042</x:v>
+        <x:v>2044</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -544,7 +544,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>4</x:v>
@@ -602,10 +602,10 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -625,13 +625,13 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,16 +645,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>869</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>486</x:v>
@@ -677,10 +677,10 @@
         <x:v>1152</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2027</x:v>
+        <x:v>2026</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2197</x:v>
+        <x:v>2199</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1311</x:v>
@@ -752,7 +752,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>41</x:v>
@@ -813,7 +813,7 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -839,7 +839,7 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>928</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1005</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>1844</x:v>
+        <x:v>2079</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3041</x:v>
+        <x:v>3455</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>3709</x:v>
+        <x:v>4170</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2044</x:v>
+        <x:v>2333</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,13 +541,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>4</x:v>
@@ -567,19 +567,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>871</x:v>
+        <x:v>998</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2026</x:v>
+        <x:v>2309</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2199</x:v>
+        <x:v>2510</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1311</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -703,10 +703,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -729,13 +729,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -749,19 +749,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>619</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,19 +801,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>756</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1020</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>463</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>662</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2079</x:v>
+        <x:v>2087</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3455</x:v>
+        <x:v>3463</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4170</x:v>
+        <x:v>4175</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2333</x:v>
+        <x:v>2337</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -596,7 +596,7 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>212</x:v>
@@ -605,7 +605,7 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>442</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>486</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>609</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -651,13 +651,13 @@
         <x:v>432</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>998</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1308</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2309</x:v>
+        <x:v>2322</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2510</x:v>
+        <x:v>2516</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1490</x:v>
+        <x:v>1496</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -775,16 +775,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>762</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>91</x:v>
@@ -804,13 +804,13 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>236</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>108</x:v>
@@ -830,13 +830,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>397</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>578</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1021</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>664</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2087</x:v>
+        <x:v>2091</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3463</x:v>
+        <x:v>3479</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4175</x:v>
+        <x:v>4189</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2337</x:v>
+        <x:v>2342</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -573,7 +573,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>19</x:v>
@@ -605,7 +605,7 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>486</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>612</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,16 +648,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>999</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1312</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2322</x:v>
+        <x:v>2346</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2516</x:v>
+        <x:v>2538</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1496</x:v>
+        <x:v>1510</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -749,13 +749,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>52</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>763</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -830,16 +830,16 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>736</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,10 +492,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1023</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1152</x:v>
@@ -515,13 +515,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>666</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2091</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3479</x:v>
+        <x:v>3481</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>4189</x:v>
@@ -573,7 +573,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>19</x:v>
@@ -599,10 +599,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>94</x:v>
@@ -622,16 +622,16 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>617</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1314</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>2346</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2538</x:v>
+        <x:v>2539</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1510</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -703,7 +703,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>17</x:v>
@@ -807,7 +807,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>326</x:v>
@@ -830,13 +830,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>739</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>851</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>398</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,13 +495,13 @@
         <x:v>579</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1024</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -521,13 +521,13 @@
         <x:v>2091</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3481</x:v>
+        <x:v>3486</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4189</x:v>
+        <x:v>4191</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2342</x:v>
+        <x:v>2345</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>159</x:v>
@@ -622,16 +622,16 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>617</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -657,7 +657,7 @@
         <x:v>1006</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1315</x:v>
+        <x:v>1317</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2346</x:v>
+        <x:v>2353</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2539</x:v>
+        <x:v>2542</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1512</x:v>
+        <x:v>1514</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -752,7 +752,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>49</x:v>
@@ -775,10 +775,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>108</x:v>
@@ -807,10 +807,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>108</x:v>
@@ -830,13 +830,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>739</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>398</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,13 +495,13 @@
         <x:v>579</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1025</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1155</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -518,13 +518,13 @@
         <x:v>668</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2091</x:v>
+        <x:v>2093</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3486</x:v>
+        <x:v>3487</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4191</x:v>
+        <x:v>4194</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>2345</x:v>
@@ -602,7 +602,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>94</x:v>
@@ -628,7 +628,7 @@
         <x:v>489</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>377</x:v>
@@ -674,13 +674,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1317</x:v>
+        <x:v>1318</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2353</x:v>
+        <x:v>2354</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2542</x:v>
+        <x:v>2547</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1514</x:v>
@@ -761,7 +761,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -804,7 +804,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>238</x:v>
@@ -830,16 +830,16 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>855</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,7 +495,7 @@
         <x:v>579</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1026</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1156</x:v>
@@ -524,10 +524,10 @@
         <x:v>3487</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4194</x:v>
+        <x:v>4195</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2345</x:v>
+        <x:v>2348</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -622,13 +622,13 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>489</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>377</x:v>
@@ -651,10 +651,10 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>825</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1006</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>553</x:v>
@@ -674,7 +674,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1318</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>2354</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>49</x:v>
@@ -775,10 +775,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>108</x:v>
@@ -827,10 +827,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>742</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,16 +489,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1027</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1156</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>467</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2093</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3487</x:v>
+        <x:v>3490</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4195</x:v>
+        <x:v>4198</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2348</x:v>
+        <x:v>2350</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -573,7 +573,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>19</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>159</x:v>
@@ -602,7 +602,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>94</x:v>
@@ -628,10 +628,10 @@
         <x:v>489</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>619</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,10 +648,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>828</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>1007</x:v>
@@ -671,7 +671,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>1319</x:v>
@@ -683,7 +683,7 @@
         <x:v>2547</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1514</x:v>
+        <x:v>1515</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>49</x:v>
@@ -775,7 +775,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>771</x:v>
@@ -830,10 +830,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>856</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1028</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1158</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,16 +515,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2093</x:v>
+        <x:v>2098</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3490</x:v>
+        <x:v>3493</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4198</x:v>
+        <x:v>4207</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>2350</x:v>
@@ -567,7 +567,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>39</x:v>
@@ -599,10 +599,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>94</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -654,10 +654,10 @@
         <x:v>829</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1007</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,13 +674,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1325</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2354</x:v>
+        <x:v>2356</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2547</x:v>
+        <x:v>2552</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1515</x:v>
@@ -703,7 +703,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>17</x:v>
@@ -752,13 +752,13 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>27</x:v>
@@ -775,16 +775,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>94</x:v>
@@ -804,7 +804,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>238</x:v>
@@ -827,16 +827,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>856</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>399</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,16 +489,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>582</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1029</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1160</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>471</x:v>
@@ -518,16 +518,16 @@
         <x:v>670</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2098</x:v>
+        <x:v>2099</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3493</x:v>
+        <x:v>3498</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4207</x:v>
+        <x:v>4211</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2350</x:v>
+        <x:v>2352</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -567,7 +567,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>39</x:v>
@@ -599,13 +599,13 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -622,16 +622,16 @@
         <x:v>448</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>624</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>829</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -680,10 +680,10 @@
         <x:v>2356</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2552</x:v>
+        <x:v>2555</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1515</x:v>
+        <x:v>1517</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -703,7 +703,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>17</x:v>
@@ -729,7 +729,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>11</x:v>
@@ -778,7 +778,7 @@
         <x:v>284</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>108</x:v>
@@ -833,13 +833,13 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>745</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>857</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,7 +489,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>582</x:v>
@@ -501,7 +501,7 @@
         <x:v>1162</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>471</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -527,7 +527,7 @@
         <x:v>4211</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2352</x:v>
+        <x:v>2358</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -596,10 +596,10 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>280</x:v>
@@ -631,7 +631,7 @@
         <x:v>623</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -654,10 +654,10 @@
         <x:v>832</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1011</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1325</x:v>
+        <x:v>1326</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2356</x:v>
+        <x:v>2359</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>2555</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1517</x:v>
+        <x:v>1519</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -752,7 +752,7 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>49</x:v>
@@ -801,13 +801,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>109</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>328</x:v>
@@ -836,10 +836,10 @@
         <x:v>743</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>857</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,13 +489,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1028</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1162</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2099</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3498</x:v>
+        <x:v>3501</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>4211</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2358</x:v>
+        <x:v>2361</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -631,7 +631,7 @@
         <x:v>623</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -674,13 +674,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1326</x:v>
+        <x:v>1328</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>2359</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2555</x:v>
+        <x:v>2556</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1519</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>49</x:v>
@@ -784,7 +784,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>94</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1030</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1162</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>672</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2099</x:v>
+        <x:v>2429</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3501</x:v>
+        <x:v>3945</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4211</x:v>
+        <x:v>4734</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2361</x:v>
+        <x:v>2660</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,16 +541,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>3</x:v>
@@ -567,19 +567,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>448</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>832</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1012</x:v>
+        <x:v>1124</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1328</x:v>
+        <x:v>1496</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2359</x:v>
+        <x:v>2660</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2556</x:v>
+        <x:v>2837</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1519</x:v>
+        <x:v>1683</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -700,13 +700,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -732,7 +732,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>3</x:v>
@@ -749,19 +749,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="n">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>94</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,19 +801,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>858</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>648</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1157</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1318</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,16 +515,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2429</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3945</x:v>
+        <x:v>3948</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4734</x:v>
+        <x:v>4737</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>2660</x:v>
@@ -596,13 +596,13 @@
         <x:v>371</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>251</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>112</x:v>
@@ -619,16 +619,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>556</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>413</x:v>
@@ -651,13 +651,13 @@
         <x:v>480</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>920</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1124</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,16 +674,16 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1496</x:v>
+        <x:v>1497</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2660</x:v>
+        <x:v>2665</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2837</x:v>
+        <x:v>2844</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1683</x:v>
+        <x:v>1689</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -804,13 +804,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>270</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>124</x:v>
@@ -830,16 +830,16 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>837</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>940</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,10 +492,10 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1158</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1318</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2429</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3948</x:v>
+        <x:v>3949</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4737</x:v>
+        <x:v>4738</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2660</x:v>
+        <x:v>2661</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>184</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>368</x:v>
@@ -651,13 +651,13 @@
         <x:v>480</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>1125</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -677,10 +677,10 @@
         <x:v>1497</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2665</x:v>
+        <x:v>2669</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2844</x:v>
+        <x:v>2849</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1689</x:v>
@@ -775,7 +775,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>880</x:v>
@@ -807,7 +807,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>359</x:v>
@@ -836,10 +836,10 @@
         <x:v>843</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>943</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>650</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1159</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1318</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -524,10 +524,10 @@
         <x:v>3949</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4738</x:v>
+        <x:v>4742</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2661</x:v>
+        <x:v>2659</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>184</x:v>
@@ -619,13 +619,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>368</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>697</x:v>
@@ -654,7 +654,7 @@
         <x:v>922</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1125</x:v>
+        <x:v>1126</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>629</x:v>
@@ -671,16 +671,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>1497</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2669</x:v>
+        <x:v>2673</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2849</x:v>
+        <x:v>2851</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1689</x:v>
@@ -758,7 +758,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>30</x:v>
@@ -775,13 +775,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>132</x:v>
@@ -839,7 +839,7 @@
         <x:v>944</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>365</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1158</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>532</x:v>
@@ -521,10 +521,10 @@
         <x:v>2429</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3949</x:v>
+        <x:v>3950</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4742</x:v>
+        <x:v>4744</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>2659</x:v>
@@ -651,10 +651,10 @@
         <x:v>480</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>922</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1126</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>629</x:v>
@@ -677,13 +677,13 @@
         <x:v>1497</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2673</x:v>
+        <x:v>2674</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>2851</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1689</x:v>
+        <x:v>1690</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -807,7 +807,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>359</x:v>
@@ -839,7 +839,7 @@
         <x:v>944</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1160</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1320</x:v>
+        <x:v>1326</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2429</x:v>
+        <x:v>2434</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3950</x:v>
+        <x:v>3959</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4744</x:v>
+        <x:v>4759</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2659</x:v>
+        <x:v>2671</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -570,7 +570,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>19</x:v>
@@ -593,10 +593,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>251</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1127</x:v>
+        <x:v>1139</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1497</x:v>
+        <x:v>1503</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2674</x:v>
+        <x:v>2679</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2851</x:v>
+        <x:v>2864</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1690</x:v>
+        <x:v>1694</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -700,10 +700,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>19</x:v>
@@ -726,10 +726,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>12</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>55</x:v>
@@ -775,13 +775,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>882</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>132</x:v>
@@ -801,7 +801,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>122</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>843</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>944</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>2434</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3959</x:v>
+        <x:v>3962</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4759</x:v>
+        <x:v>4761</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2671</x:v>
+        <x:v>2672</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -619,7 +619,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>369</x:v>
@@ -674,16 +674,16 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1503</x:v>
+        <x:v>1504</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2679</x:v>
+        <x:v>2680</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2864</x:v>
+        <x:v>2865</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1694</x:v>
+        <x:v>1696</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,16 +492,16 @@
         <x:v>366</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1164</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1326</x:v>
+        <x:v>1327</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -521,10 +521,10 @@
         <x:v>2434</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3962</x:v>
+        <x:v>3963</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4761</x:v>
+        <x:v>4763</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>2672</x:v>
@@ -631,7 +631,7 @@
         <x:v>699</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -654,7 +654,7 @@
         <x:v>930</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1139</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>636</x:v>
@@ -677,7 +677,7 @@
         <x:v>1504</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2680</x:v>
+        <x:v>2681</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>2865</x:v>
@@ -813,7 +813,7 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>657</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1164</x:v>
+        <x:v>1276</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1327</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2434</x:v>
+        <x:v>2708</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>3963</x:v>
+        <x:v>4369</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>4763</x:v>
+        <x:v>5273</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2672</x:v>
+        <x:v>2959</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,19 +541,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
@@ -567,19 +567,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>376</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>560</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>699</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1141</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1504</x:v>
+        <x:v>1669</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2681</x:v>
+        <x:v>2940</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>2865</x:v>
+        <x:v>3150</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1696</x:v>
+        <x:v>1867</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -700,16 +700,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
         <x:v>0</x:v>
@@ -726,13 +726,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="n">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>3</x:v>
@@ -749,19 +749,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>884</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,19 +801,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>440</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -495,10 +495,10 @@
         <x:v>717</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1276</x:v>
+        <x:v>1278</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1477</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>606</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2708</x:v>
+        <x:v>2712</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>4369</x:v>
+        <x:v>4376</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>5273</x:v>
+        <x:v>5277</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2959</x:v>
+        <x:v>2963</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>560</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>417</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>765</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,16 +648,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>1017</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1264</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>691</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -674,13 +674,13 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1669</x:v>
+        <x:v>1671</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2940</x:v>
+        <x:v>2942</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>3150</x:v>
+        <x:v>3151</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1867</x:v>
@@ -761,7 +761,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -836,10 +836,10 @@
         <x:v>924</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1045</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1278</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1481</x:v>
+        <x:v>1483</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>606</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2712</x:v>
+        <x:v>2718</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>4376</x:v>
+        <x:v>4384</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>5277</x:v>
+        <x:v>5279</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2963</x:v>
+        <x:v>2964</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>203</x:v>
@@ -605,7 +605,7 @@
         <x:v>332</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,13 +648,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>1018</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1269</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>693</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1671</x:v>
+        <x:v>1674</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2942</x:v>
+        <x:v>2944</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>3151</x:v>
+        <x:v>3155</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1867</x:v>
+        <x:v>1873</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>58</x:v>
@@ -775,13 +775,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>982</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>147</x:v>
@@ -801,13 +801,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>131</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>380</x:v>
@@ -833,13 +833,13 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,10 +492,10 @@
         <x:v>419</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1279</x:v>
+        <x:v>1278</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1483</x:v>
@@ -521,13 +521,13 @@
         <x:v>2718</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>4384</x:v>
+        <x:v>4386</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>5279</x:v>
+        <x:v>5281</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2964</x:v>
+        <x:v>2966</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -599,7 +599,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>332</x:v>
@@ -657,7 +657,7 @@
         <x:v>1270</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>1674</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2944</x:v>
+        <x:v>2945</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>3155</x:v>
+        <x:v>3157</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1873</x:v>
+        <x:v>1874</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -758,7 +758,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>32</x:v>
@@ -804,7 +804,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>306</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>927</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>1049</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,10 +492,10 @@
         <x:v>419</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1278</x:v>
+        <x:v>1281</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1483</x:v>
@@ -518,16 +518,16 @@
         <x:v>885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2718</x:v>
+        <x:v>2719</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>4386</x:v>
+        <x:v>4387</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>5281</x:v>
+        <x:v>5283</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2966</x:v>
+        <x:v>2968</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -567,7 +567,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>43</x:v>
@@ -593,7 +593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>203</x:v>
@@ -602,7 +602,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>122</x:v>
@@ -622,16 +622,16 @@
         <x:v>564</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>628</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,7 +648,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>1019</x:v>
@@ -674,16 +674,16 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1674</x:v>
+        <x:v>1675</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>2945</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>3157</x:v>
+        <x:v>3158</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1874</x:v>
+        <x:v>1875</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -755,7 +755,7 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>67</x:v>
@@ -775,7 +775,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>986</x:v>
@@ -784,7 +784,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>120</x:v>
@@ -810,10 +810,10 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -830,16 +830,16 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -492,13 +492,13 @@
         <x:v>419</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1281</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1483</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>609</x:v>
@@ -518,16 +518,16 @@
         <x:v>885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2719</x:v>
+        <x:v>2724</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>4387</x:v>
+        <x:v>4394</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>5283</x:v>
+        <x:v>5308</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2968</x:v>
+        <x:v>2974</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,7 +541,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>21</x:v>
@@ -567,7 +567,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>43</x:v>
@@ -593,16 +593,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>122</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -648,16 +648,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>1019</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1270</x:v>
+        <x:v>1273</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1675</x:v>
+        <x:v>1678</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2945</x:v>
+        <x:v>2952</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>3158</x:v>
+        <x:v>3167</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1875</x:v>
+        <x:v>1878</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -700,7 +700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>32</x:v>
@@ -749,10 +749,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>59</x:v>
@@ -775,10 +775,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>986</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>142</x:v>
@@ -787,7 +787,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -810,10 +810,10 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -833,13 +833,13 @@
         <x:v>541</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>937</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1050</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -489,19 +489,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1285</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1487</x:v>
+        <x:v>1610</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>609</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -515,19 +515,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>885</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>2724</x:v>
+        <x:v>2909</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>4394</x:v>
+        <x:v>4795</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>5308</x:v>
+        <x:v>5789</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>2974</x:v>
+        <x:v>3300</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
@@ -541,7 +541,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>21</x:v>
@@ -553,7 +553,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
@@ -567,19 +567,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -593,19 +593,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -619,19 +619,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -645,19 +645,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>1022</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1273</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
         <x:v>0</x:v>
@@ -671,19 +671,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1678</x:v>
+        <x:v>1865</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>2952</x:v>
+        <x:v>3273</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>3167</x:v>
+        <x:v>3455</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1878</x:v>
+        <x:v>2039</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
         <x:v>0</x:v>
@@ -700,13 +700,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>1</x:v>
@@ -749,19 +749,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
         <x:v>0</x:v>
@@ -775,19 +775,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -801,19 +801,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
         <x:v>0</x:v>
@@ -827,19 +827,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>939</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>1053</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Group B Arrests" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Group B Arrests" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -46,25 +46,223 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
     <x:t>Male</x:t>
   </x:si>
   <x:si>
+    <x:t>968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3321</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515</x:t>
+  </x:si>
+  <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1879</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2057</x:t>
+  </x:si>
+  <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>543</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -73,7 +271,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -123,13 +321,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -138,7 +336,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -146,7 +344,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -441,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -488,23 +686,23 @@
       <x:c r="B2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>460</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>778</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>1381</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>1610</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>661</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -512,337 +710,337 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>959</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>2909</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>4795</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>5789</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>3300</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C4" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="D5" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>436</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>360</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C6" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>636</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>463</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>665</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>822</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>510</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="E7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>593</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>1104</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>1398</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>772</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C8" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>1865</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>3273</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>3455</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>2039</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C10" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C12" s="1" t="n">
-        <x:v>345</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>486</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="n">
+      <x:c r="C12" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F12" s="1" t="n">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="n">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="E12" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="n">
-        <x:v>424</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="n">
-        <x:v>1066</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="n">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C14" s="1" t="n">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>414</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C14" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="n">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="n">
-        <x:v>575</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="n">
-        <x:v>1042</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="n">
-        <x:v>1148</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="n">
-        <x:v>532</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="n">
-        <x:v>0</x:v>
+      <x:c r="C15" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -49,16 +49,16 @@
     <x:t>465</x:t>
   </x:si>
   <x:si>
-    <x:t>784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>666</x:t>
+    <x:t>785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1618</x:t>
+  </x:si>
+  <x:si>
+    <x:t>668</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
@@ -73,13 +73,13 @@
     <x:t>2921</x:t>
   </x:si>
   <x:si>
-    <x:t>4819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3321</x:t>
+    <x:t>4820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3323</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -118,13 +118,13 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>450</x:t>
+    <x:t>453</x:t>
   </x:si>
   <x:si>
     <x:t>228</x:t>
   </x:si>
   <x:si>
-    <x:t>304</x:t>
+    <x:t>305</x:t>
   </x:si>
   <x:si>
     <x:t>364</x:t>
@@ -136,7 +136,7 @@
     <x:t>645</x:t>
   </x:si>
   <x:si>
-    <x:t>670</x:t>
+    <x:t>671</x:t>
   </x:si>
   <x:si>
     <x:t>830</x:t>
@@ -151,13 +151,13 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>602</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1422</x:t>
+    <x:t>603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1423</x:t>
   </x:si>
   <x:si>
     <x:t>780</x:t>
@@ -166,16 +166,16 @@
     <x:t>150</x:t>
   </x:si>
   <x:si>
-    <x:t>1879</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3297</x:t>
+    <x:t>1880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3298</x:t>
   </x:si>
   <x:si>
     <x:t>3470</x:t>
   </x:si>
   <x:si>
-    <x:t>2057</x:t>
+    <x:t>2058</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -208,10 +208,10 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>490</x:t>
+    <x:t>351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>491</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
@@ -220,10 +220,10 @@
     <x:t>79</x:t>
   </x:si>
   <x:si>
-    <x:t>425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1073</x:t>
+    <x:t>428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1077</x:t>
   </x:si>
   <x:si>
     <x:t>157</x:t>
@@ -244,7 +244,7 @@
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>417</x:t>
+    <x:t>418</x:t>
   </x:si>
   <x:si>
     <x:t>176</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,103 +46,106 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
+    <x:t>467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2922</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>650</x:t>
+  </x:si>
+  <x:si>
     <x:t>465</x:t>
   </x:si>
   <x:si>
-    <x:t>785</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1388</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1618</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2921</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>645</x:t>
-  </x:si>
-  <x:si>
     <x:t>671</x:t>
   </x:si>
   <x:si>
     <x:t>830</x:t>
   </x:si>
   <x:si>
-    <x:t>515</x:t>
+    <x:t>517</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -154,10 +157,10 @@
     <x:t>603</x:t>
   </x:si>
   <x:si>
-    <x:t>1123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1423</x:t>
+    <x:t>1127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1424</x:t>
   </x:si>
   <x:si>
     <x:t>780</x:t>
@@ -166,16 +169,16 @@
     <x:t>150</x:t>
   </x:si>
   <x:si>
-    <x:t>1880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2058</x:t>
+    <x:t>1881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2061</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -184,7 +187,7 @@
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>35</x:t>
+    <x:t>36</x:t>
   </x:si>
   <x:si>
     <x:t>26</x:t>
@@ -199,9 +202,6 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
@@ -211,28 +211,28 @@
     <x:t>351</x:t>
   </x:si>
   <x:si>
-    <x:t>491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>428</x:t>
+    <x:t>492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>429</x:t>
   </x:si>
   <x:si>
     <x:t>1077</x:t>
   </x:si>
   <x:si>
-    <x:t>157</x:t>
+    <x:t>158</x:t>
   </x:si>
   <x:si>
     <x:t>170</x:t>
   </x:si>
   <x:si>
-    <x:t>131</x:t>
+    <x:t>132</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
@@ -241,10 +241,13 @@
     <x:t>67</x:t>
   </x:si>
   <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>418</x:t>
+    <x:t>421</x:t>
   </x:si>
   <x:si>
     <x:t>176</x:t>
@@ -256,7 +259,7 @@
     <x:t>587</x:t>
   </x:si>
   <x:si>
-    <x:t>1051</x:t>
+    <x:t>1054</x:t>
   </x:si>
   <x:si>
     <x:t>1170</x:t>
@@ -820,16 +823,16 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>15</x:v>
@@ -837,25 +840,25 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
         <x:v>15</x:v>
@@ -863,25 +866,25 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>15</x:v>
@@ -889,7 +892,7 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
@@ -898,16 +901,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>15</x:v>
@@ -915,19 +918,19 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
         <x:v>61</x:v>
@@ -959,7 +962,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>15</x:v>
@@ -1002,16 +1005,16 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>15</x:v>
@@ -1025,19 +1028,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,16 +46,16 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>467</x:t>
+    <x:t>469</x:t>
   </x:si>
   <x:si>
     <x:t>786</x:t>
   </x:si>
   <x:si>
-    <x:t>1389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1619</x:t>
+    <x:t>1399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1620</x:t>
   </x:si>
   <x:si>
     <x:t>669</x:t>
@@ -67,19 +67,19 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>969</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2922</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3325</x:t>
+    <x:t>973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2928</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5836</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3329</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -121,10 +121,10 @@
     <x:t>454</x:t>
   </x:si>
   <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>306</x:t>
+    <x:t>229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>307</x:t>
   </x:si>
   <x:si>
     <x:t>365</x:t>
@@ -139,7 +139,7 @@
     <x:t>465</x:t>
   </x:si>
   <x:si>
-    <x:t>671</x:t>
+    <x:t>673</x:t>
   </x:si>
   <x:si>
     <x:t>830</x:t>
@@ -157,10 +157,10 @@
     <x:t>603</x:t>
   </x:si>
   <x:si>
-    <x:t>1127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1424</x:t>
+    <x:t>1128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1425</x:t>
   </x:si>
   <x:si>
     <x:t>780</x:t>
@@ -169,13 +169,13 @@
     <x:t>150</x:t>
   </x:si>
   <x:si>
-    <x:t>1881</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3475</x:t>
+    <x:t>1882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3477</x:t>
   </x:si>
   <x:si>
     <x:t>2061</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,7 +46,7 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>469</x:t>
+    <x:t>470</x:t>
   </x:si>
   <x:si>
     <x:t>786</x:t>
@@ -67,16 +67,16 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>973</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2928</x:t>
+    <x:t>974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2929</x:t>
   </x:si>
   <x:si>
     <x:t>4832</x:t>
   </x:si>
   <x:si>
-    <x:t>5836</x:t>
+    <x:t>5837</x:t>
   </x:si>
   <x:si>
     <x:t>3329</x:t>
@@ -142,10 +142,10 @@
     <x:t>673</x:t>
   </x:si>
   <x:si>
-    <x:t>830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>517</x:t>
+    <x:t>831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>518</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -154,13 +154,13 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>603</x:t>
+    <x:t>604</x:t>
   </x:si>
   <x:si>
     <x:t>1128</x:t>
   </x:si>
   <x:si>
-    <x:t>1425</x:t>
+    <x:t>1426</x:t>
   </x:si>
   <x:si>
     <x:t>780</x:t>
@@ -172,10 +172,10 @@
     <x:t>1882</x:t>
   </x:si>
   <x:si>
-    <x:t>3303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3477</x:t>
+    <x:t>3304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3478</x:t>
   </x:si>
   <x:si>
     <x:t>2061</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,19 +46,19 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>786</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1620</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669</x:t>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>841</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>713</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
@@ -67,31 +67,31 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>974</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2929</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3329</x:t>
+    <x:t>1037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3622</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -100,172 +100,172 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>183</x:t>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
   </x:si>
   <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831</x:t>
+    <x:t>651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>368</x:t>
   </x:si>
   <x:si>
     <x:t>518</x:t>
   </x:si>
   <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1426</x:t>
-  </x:si>
-  <x:si>
-    <x:t>780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1882</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>492</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>429</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>223</x:t>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>471</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1274</x:t>
   </x:si>
   <x:si>
     <x:t>587</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>543</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -930,7 +930,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
         <x:v>61</x:v>
@@ -962,7 +962,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>15</x:v>
@@ -976,19 +976,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>15</x:v>
@@ -996,16 +996,16 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>76</x:v>
@@ -1022,7 +1022,7 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,13 +46,13 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>841</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1492</x:t>
+    <x:t>501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>842</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1495</x:t>
   </x:si>
   <x:si>
     <x:t>1754</x:t>
@@ -70,16 +70,16 @@
     <x:t>1037</x:t>
   </x:si>
   <x:si>
-    <x:t>3171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3622</x:t>
+    <x:t>3174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3625</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -118,7 +118,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>480</x:t>
+    <x:t>482</x:t>
   </x:si>
   <x:si>
     <x:t>251</x:t>
@@ -142,7 +142,7 @@
     <x:t>716</x:t>
   </x:si>
   <x:si>
-    <x:t>887</x:t>
+    <x:t>888</x:t>
   </x:si>
   <x:si>
     <x:t>553</x:t>
@@ -154,10 +154,10 @@
     <x:t>46</x:t>
   </x:si>
   <x:si>
-    <x:t>651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1233</x:t>
+    <x:t>652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1236</x:t>
   </x:si>
   <x:si>
     <x:t>1538</x:t>
@@ -172,10 +172,10 @@
     <x:t>2008</x:t>
   </x:si>
   <x:si>
-    <x:t>3557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3776</x:t>
+    <x:t>3558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3777</x:t>
   </x:si>
   <x:si>
     <x:t>2230</x:t>
@@ -184,7 +184,7 @@
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
-    <x:t>17</x:t>
+    <x:t>18</x:t>
   </x:si>
   <x:si>
     <x:t>40</x:t>
@@ -199,73 +199,73 @@
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
     <x:t>368</x:t>
   </x:si>
   <x:si>
-    <x:t>518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>471</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>623</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>587</x:t>
+    <x:t>473</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -933,10 +933,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>15</x:v>
@@ -944,25 +944,25 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D12" s="1" t="s">
+      <x:c r="E12" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E12" s="1" t="s">
+      <x:c r="F12" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="F12" s="1" t="s">
+      <x:c r="G12" s="1" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>15</x:v>
@@ -970,25 +970,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>15</x:v>
@@ -996,16 +996,16 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>76</x:v>
@@ -1022,7 +1022,7 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -55,7 +55,7 @@
     <x:t>1495</x:t>
   </x:si>
   <x:si>
-    <x:t>1754</x:t>
+    <x:t>1755</x:t>
   </x:si>
   <x:si>
     <x:t>713</x:t>
@@ -121,7 +121,7 @@
     <x:t>482</x:t>
   </x:si>
   <x:si>
-    <x:t>251</x:t>
+    <x:t>252</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,16 +46,16 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>501</x:t>
+    <x:t>502</x:t>
   </x:si>
   <x:si>
     <x:t>842</x:t>
   </x:si>
   <x:si>
-    <x:t>1495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1755</x:t>
+    <x:t>1496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1763</x:t>
   </x:si>
   <x:si>
     <x:t>713</x:t>
@@ -70,22 +70,22 @@
     <x:t>1037</x:t>
   </x:si>
   <x:si>
-    <x:t>3174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3625</x:t>
+    <x:t>3177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3628</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>92</x:t>
+    <x:t>91</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
@@ -100,7 +100,7 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>189</x:t>
+    <x:t>187</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
@@ -118,22 +118,22 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>252</x:t>
+    <x:t>483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>397</x:t>
+    <x:t>398</x:t>
   </x:si>
   <x:si>
     <x:t>134</x:t>
   </x:si>
   <x:si>
-    <x:t>673</x:t>
+    <x:t>676</x:t>
   </x:si>
   <x:si>
     <x:t>494</x:t>
@@ -142,10 +142,10 @@
     <x:t>716</x:t>
   </x:si>
   <x:si>
-    <x:t>888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>553</x:t>
+    <x:t>891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>555</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -154,31 +154,31 @@
     <x:t>46</x:t>
   </x:si>
   <x:si>
-    <x:t>652</x:t>
+    <x:t>653</x:t>
   </x:si>
   <x:si>
     <x:t>1236</x:t>
   </x:si>
   <x:si>
-    <x:t>1538</x:t>
-  </x:si>
-  <x:si>
-    <x:t>859</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3777</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2230</x:t>
+    <x:t>1543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2241</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -187,7 +187,7 @@
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>40</x:t>
+    <x:t>41</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -232,7 +232,7 @@
     <x:t>183</x:t>
   </x:si>
   <x:si>
-    <x:t>141</x:t>
+    <x:t>143</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
@@ -262,10 +262,10 @@
     <x:t>1166</x:t>
   </x:si>
   <x:si>
-    <x:t>1278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
+    <x:t>1281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>592</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -67,16 +67,16 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6351</x:t>
+    <x:t>1038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6354</x:t>
   </x:si>
   <x:si>
     <x:t>3628</x:t>
@@ -133,13 +133,13 @@
     <x:t>134</x:t>
   </x:si>
   <x:si>
-    <x:t>676</x:t>
+    <x:t>677</x:t>
   </x:si>
   <x:si>
     <x:t>494</x:t>
   </x:si>
   <x:si>
-    <x:t>716</x:t>
+    <x:t>715</x:t>
   </x:si>
   <x:si>
     <x:t>891</x:t>
@@ -172,13 +172,13 @@
     <x:t>2013</x:t>
   </x:si>
   <x:si>
-    <x:t>3568</x:t>
+    <x:t>3571</x:t>
   </x:si>
   <x:si>
     <x:t>3784</x:t>
   </x:si>
   <x:si>
-    <x:t>2241</x:t>
+    <x:t>2242</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -205,10 +205,10 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>519</x:t>
+    <x:t>373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
   </x:si>
   <x:si>
     <x:t>75</x:t>
@@ -223,13 +223,13 @@
     <x:t>444</x:t>
   </x:si>
   <x:si>
-    <x:t>1146</x:t>
+    <x:t>1149</x:t>
   </x:si>
   <x:si>
     <x:t>166</x:t>
   </x:si>
   <x:si>
-    <x:t>183</x:t>
+    <x:t>184</x:t>
   </x:si>
   <x:si>
     <x:t>143</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -52,13 +52,13 @@
     <x:t>842</x:t>
   </x:si>
   <x:si>
-    <x:t>1496</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1763</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
+    <x:t>1497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
@@ -67,19 +67,19 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1038</x:t>
+    <x:t>1036</x:t>
   </x:si>
   <x:si>
     <x:t>3179</x:t>
   </x:si>
   <x:si>
-    <x:t>5241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6354</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3628</x:t>
+    <x:t>5245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3629</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -136,13 +136,10 @@
     <x:t>677</x:t>
   </x:si>
   <x:si>
-    <x:t>494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715</x:t>
-  </x:si>
-  <x:si>
-    <x:t>891</x:t>
+    <x:t>495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>892</x:t>
   </x:si>
   <x:si>
     <x:t>555</x:t>
@@ -157,25 +154,25 @@
     <x:t>653</x:t>
   </x:si>
   <x:si>
-    <x:t>1236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>860</x:t>
+    <x:t>1237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>862</x:t>
   </x:si>
   <x:si>
     <x:t>159</x:t>
   </x:si>
   <x:si>
-    <x:t>2013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3571</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3784</x:t>
+    <x:t>2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3788</x:t>
   </x:si>
   <x:si>
     <x:t>2242</x:t>
@@ -208,7 +205,7 @@
     <x:t>373</x:t>
   </x:si>
   <x:si>
-    <x:t>523</x:t>
+    <x:t>526</x:t>
   </x:si>
   <x:si>
     <x:t>75</x:t>
@@ -220,7 +217,7 @@
     <x:t>44</x:t>
   </x:si>
   <x:si>
-    <x:t>444</x:t>
+    <x:t>443</x:t>
   </x:si>
   <x:si>
     <x:t>1149</x:t>
@@ -265,7 +262,7 @@
     <x:t>1281</x:t>
   </x:si>
   <x:si>
-    <x:t>592</x:t>
+    <x:t>593</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -826,13 +823,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="F7" s="1" t="s">
+      <x:c r="G7" s="1" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>43</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>15</x:v>
@@ -840,25 +837,25 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D8" s="1" t="s">
+      <x:c r="E8" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="s">
+      <x:c r="F8" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="F8" s="1" t="s">
+      <x:c r="G8" s="1" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
         <x:v>15</x:v>
@@ -866,25 +863,25 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
+      <x:c r="E9" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s">
+      <x:c r="G9" s="1" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>15</x:v>
@@ -892,7 +889,7 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
@@ -901,16 +898,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="s">
+      <x:c r="F10" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F10" s="1" t="s">
+      <x:c r="G10" s="1" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>15</x:v>
@@ -918,25 +915,25 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="E11" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>15</x:v>
@@ -944,25 +941,25 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D12" s="1" t="s">
+      <x:c r="E12" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E12" s="1" t="s">
+      <x:c r="F12" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F12" s="1" t="s">
+      <x:c r="G12" s="1" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>67</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>15</x:v>
@@ -970,25 +967,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>72</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>15</x:v>
@@ -996,25 +993,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
+      <x:c r="G14" s="1" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>15</x:v>
@@ -1022,25 +1019,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,99 +46,102 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>502</x:t>
-  </x:si>
-  <x:si>
-    <x:t>842</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1765</x:t>
+    <x:t>504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>495</x:t>
   </x:si>
   <x:si>
     <x:t>715</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6356</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>495</x:t>
-  </x:si>
-  <x:si>
     <x:t>892</x:t>
   </x:si>
   <x:si>
@@ -154,28 +157,28 @@
     <x:t>653</x:t>
   </x:si>
   <x:si>
-    <x:t>1237</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3788</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2242</x:t>
+    <x:t>1240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2246</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -187,7 +190,7 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>28</x:t>
+    <x:t>29</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -226,7 +229,7 @@
     <x:t>166</x:t>
   </x:si>
   <x:si>
-    <x:t>184</x:t>
+    <x:t>185</x:t>
   </x:si>
   <x:si>
     <x:t>143</x:t>
@@ -241,25 +244,25 @@
     <x:t>167</x:t>
   </x:si>
   <x:si>
-    <x:t>368</x:t>
-  </x:si>
-  <x:si>
-    <x:t>473</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
+    <x:t>369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
   </x:si>
   <x:si>
     <x:t>239</x:t>
   </x:si>
   <x:si>
-    <x:t>624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1281</x:t>
+    <x:t>626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1282</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>
@@ -823,13 +826,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>15</x:v>
@@ -837,25 +840,25 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
         <x:v>15</x:v>
@@ -863,25 +866,25 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>15</x:v>
@@ -889,7 +892,7 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
@@ -898,16 +901,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>15</x:v>
@@ -915,25 +918,25 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>15</x:v>
@@ -941,25 +944,25 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>15</x:v>
@@ -967,25 +970,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>15</x:v>
@@ -993,25 +996,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>15</x:v>
@@ -1019,25 +1022,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -70,13 +70,13 @@
     <x:t>1036</x:t>
   </x:si>
   <x:si>
-    <x:t>3181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6364</x:t>
+    <x:t>3183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6367</x:t>
   </x:si>
   <x:si>
     <x:t>3631</x:t>
@@ -133,7 +133,7 @@
     <x:t>134</x:t>
   </x:si>
   <x:si>
-    <x:t>679</x:t>
+    <x:t>682</x:t>
   </x:si>
   <x:si>
     <x:t>495</x:t>
@@ -142,7 +142,7 @@
     <x:t>715</x:t>
   </x:si>
   <x:si>
-    <x:t>892</x:t>
+    <x:t>893</x:t>
   </x:si>
   <x:si>
     <x:t>555</x:t>
@@ -157,7 +157,7 @@
     <x:t>653</x:t>
   </x:si>
   <x:si>
-    <x:t>1240</x:t>
+    <x:t>1241</x:t>
   </x:si>
   <x:si>
     <x:t>1547</x:t>
@@ -172,7 +172,7 @@
     <x:t>2017</x:t>
   </x:si>
   <x:si>
-    <x:t>3576</x:t>
+    <x:t>3577</x:t>
   </x:si>
   <x:si>
     <x:t>3794</x:t>
@@ -190,7 +190,7 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>29</x:t>
+    <x:t>30</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -256,13 +256,13 @@
     <x:t>239</x:t>
   </x:si>
   <x:si>
-    <x:t>626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1282</x:t>
+    <x:t>627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1285</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,102 +46,102 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>504</x:t>
+    <x:t>506</x:t>
   </x:si>
   <x:si>
     <x:t>843</x:t>
   </x:si>
   <x:si>
-    <x:t>1498</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1768</x:t>
+    <x:t>1500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3633</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>495</x:t>
   </x:si>
   <x:si>
     <x:t>716</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>682</x:t>
-  </x:si>
-  <x:si>
-    <x:t>495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715</x:t>
-  </x:si>
-  <x:si>
     <x:t>893</x:t>
   </x:si>
   <x:si>
@@ -157,7 +157,7 @@
     <x:t>653</x:t>
   </x:si>
   <x:si>
-    <x:t>1241</x:t>
+    <x:t>1242</x:t>
   </x:si>
   <x:si>
     <x:t>1547</x:t>
@@ -169,13 +169,13 @@
     <x:t>158</x:t>
   </x:si>
   <x:si>
-    <x:t>2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3794</x:t>
+    <x:t>2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3796</x:t>
   </x:si>
   <x:si>
     <x:t>2246</x:t>
@@ -232,7 +232,7 @@
     <x:t>185</x:t>
   </x:si>
   <x:si>
-    <x:t>143</x:t>
+    <x:t>144</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
@@ -253,7 +253,7 @@
     <x:t>212</x:t>
   </x:si>
   <x:si>
-    <x:t>239</x:t>
+    <x:t>240</x:t>
   </x:si>
   <x:si>
     <x:t>627</x:t>
@@ -262,7 +262,7 @@
     <x:t>1168</x:t>
   </x:si>
   <x:si>
-    <x:t>1285</x:t>
+    <x:t>1286</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,16 +46,16 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>506</x:t>
+    <x:t>507</x:t>
   </x:si>
   <x:si>
     <x:t>843</x:t>
   </x:si>
   <x:si>
-    <x:t>1500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1770</x:t>
+    <x:t>1501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1771</x:t>
   </x:si>
   <x:si>
     <x:t>717</x:t>
@@ -73,13 +73,13 @@
     <x:t>3185</x:t>
   </x:si>
   <x:si>
-    <x:t>5254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3633</x:t>
+    <x:t>5256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6381</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3635</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -127,10 +127,10 @@
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
+    <x:t>399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
   </x:si>
   <x:si>
     <x:t>682</x:t>
@@ -145,7 +145,7 @@
     <x:t>893</x:t>
   </x:si>
   <x:si>
-    <x:t>555</x:t>
+    <x:t>556</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -157,10 +157,10 @@
     <x:t>653</x:t>
   </x:si>
   <x:si>
-    <x:t>1242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1547</x:t>
+    <x:t>1243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1551</x:t>
   </x:si>
   <x:si>
     <x:t>866</x:t>
@@ -169,16 +169,16 @@
     <x:t>158</x:t>
   </x:si>
   <x:si>
-    <x:t>2016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3578</x:t>
+    <x:t>2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3577</x:t>
   </x:si>
   <x:si>
     <x:t>3796</x:t>
   </x:si>
   <x:si>
-    <x:t>2246</x:t>
+    <x:t>2247</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -259,10 +259,10 @@
     <x:t>627</x:t>
   </x:si>
   <x:si>
-    <x:t>1168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1286</x:t>
+    <x:t>1166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1287</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -52,96 +52,96 @@
     <x:t>843</x:t>
   </x:si>
   <x:si>
-    <x:t>1501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1771</x:t>
+    <x:t>1513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>495</x:t>
   </x:si>
   <x:si>
     <x:t>717</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6381</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3635</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>484</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>682</x:t>
-  </x:si>
-  <x:si>
-    <x:t>495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>716</x:t>
-  </x:si>
-  <x:si>
     <x:t>893</x:t>
   </x:si>
   <x:si>
@@ -154,10 +154,10 @@
     <x:t>46</x:t>
   </x:si>
   <x:si>
-    <x:t>653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1243</x:t>
+    <x:t>654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1244</x:t>
   </x:si>
   <x:si>
     <x:t>1551</x:t>
@@ -166,19 +166,19 @@
     <x:t>866</x:t>
   </x:si>
   <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3796</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2247</x:t>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2251</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -205,13 +205,13 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>373</x:t>
+    <x:t>376</x:t>
   </x:si>
   <x:si>
     <x:t>526</x:t>
   </x:si>
   <x:si>
-    <x:t>75</x:t>
+    <x:t>76</x:t>
   </x:si>
   <x:si>
     <x:t>89</x:t>
@@ -223,7 +223,7 @@
     <x:t>443</x:t>
   </x:si>
   <x:si>
-    <x:t>1149</x:t>
+    <x:t>1152</x:t>
   </x:si>
   <x:si>
     <x:t>166</x:t>
@@ -247,7 +247,7 @@
     <x:t>369</x:t>
   </x:si>
   <x:si>
-    <x:t>474</x:t>
+    <x:t>473</x:t>
   </x:si>
   <x:si>
     <x:t>212</x:t>
@@ -262,7 +262,7 @@
     <x:t>1166</x:t>
   </x:si>
   <x:si>
-    <x:t>1287</x:t>
+    <x:t>1288</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,19 +46,19 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>843</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>719</x:t>
+    <x:t>509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>723</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
@@ -70,16 +70,16 @@
     <x:t>1038</x:t>
   </x:si>
   <x:si>
-    <x:t>3188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6403</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3640</x:t>
+    <x:t>3200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6427</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3644</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -118,22 +118,22 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>484</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
+    <x:t>485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255</x:t>
   </x:si>
   <x:si>
     <x:t>335</x:t>
   </x:si>
   <x:si>
-    <x:t>399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>682</x:t>
+    <x:t>400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>684</x:t>
   </x:si>
   <x:si>
     <x:t>495</x:t>
@@ -142,10 +142,10 @@
     <x:t>717</x:t>
   </x:si>
   <x:si>
-    <x:t>893</x:t>
-  </x:si>
-  <x:si>
-    <x:t>556</x:t>
+    <x:t>897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>558</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -160,7 +160,7 @@
     <x:t>1244</x:t>
   </x:si>
   <x:si>
-    <x:t>1551</x:t>
+    <x:t>1554</x:t>
   </x:si>
   <x:si>
     <x:t>866</x:t>
@@ -169,16 +169,16 @@
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3583</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2251</x:t>
+    <x:t>2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2258</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -205,10 +205,10 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
+    <x:t>377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>527</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
@@ -220,7 +220,7 @@
     <x:t>44</x:t>
   </x:si>
   <x:si>
-    <x:t>443</x:t>
+    <x:t>446</x:t>
   </x:si>
   <x:si>
     <x:t>1152</x:t>
@@ -238,10 +238,10 @@
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
   </x:si>
   <x:si>
     <x:t>369</x:t>
@@ -253,13 +253,13 @@
     <x:t>212</x:t>
   </x:si>
   <x:si>
-    <x:t>240</x:t>
+    <x:t>241</x:t>
   </x:si>
   <x:si>
     <x:t>627</x:t>
   </x:si>
   <x:si>
-    <x:t>1166</x:t>
+    <x:t>1174</x:t>
   </x:si>
   <x:si>
     <x:t>1288</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -55,7 +55,7 @@
     <x:t>1519</x:t>
   </x:si>
   <x:si>
-    <x:t>1780</x:t>
+    <x:t>1782</x:t>
   </x:si>
   <x:si>
     <x:t>723</x:t>
@@ -73,10 +73,10 @@
     <x:t>3200</x:t>
   </x:si>
   <x:si>
-    <x:t>5288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6427</x:t>
+    <x:t>5291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6431</x:t>
   </x:si>
   <x:si>
     <x:t>3644</x:t>
@@ -121,7 +121,7 @@
     <x:t>485</x:t>
   </x:si>
   <x:si>
-    <x:t>255</x:t>
+    <x:t>256</x:t>
   </x:si>
   <x:si>
     <x:t>335</x:t>
@@ -139,7 +139,7 @@
     <x:t>495</x:t>
   </x:si>
   <x:si>
-    <x:t>717</x:t>
+    <x:t>718</x:t>
   </x:si>
   <x:si>
     <x:t>897</x:t>
@@ -157,10 +157,10 @@
     <x:t>654</x:t>
   </x:si>
   <x:si>
-    <x:t>1244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1554</x:t>
+    <x:t>1245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1555</x:t>
   </x:si>
   <x:si>
     <x:t>866</x:t>
@@ -172,7 +172,7 @@
     <x:t>2025</x:t>
   </x:si>
   <x:si>
-    <x:t>3587</x:t>
+    <x:t>3589</x:t>
   </x:si>
   <x:si>
     <x:t>3806</x:t>
@@ -223,7 +223,7 @@
     <x:t>446</x:t>
   </x:si>
   <x:si>
-    <x:t>1152</x:t>
+    <x:t>1153</x:t>
   </x:si>
   <x:si>
     <x:t>166</x:t>
@@ -256,13 +256,13 @@
     <x:t>241</x:t>
   </x:si>
   <x:si>
-    <x:t>627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1288</x:t>
+    <x:t>628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1289</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -55,7 +55,7 @@
     <x:t>1519</x:t>
   </x:si>
   <x:si>
-    <x:t>1782</x:t>
+    <x:t>1783</x:t>
   </x:si>
   <x:si>
     <x:t>723</x:t>
@@ -73,10 +73,10 @@
     <x:t>3200</x:t>
   </x:si>
   <x:si>
-    <x:t>5291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6431</x:t>
+    <x:t>5293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6433</x:t>
   </x:si>
   <x:si>
     <x:t>3644</x:t>
@@ -124,22 +124,22 @@
     <x:t>256</x:t>
   </x:si>
   <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400</x:t>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>401</x:t>
   </x:si>
   <x:si>
     <x:t>137</x:t>
   </x:si>
   <x:si>
-    <x:t>684</x:t>
-  </x:si>
-  <x:si>
-    <x:t>495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>718</x:t>
+    <x:t>685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>720</x:t>
   </x:si>
   <x:si>
     <x:t>897</x:t>
@@ -172,7 +172,7 @@
     <x:t>2025</x:t>
   </x:si>
   <x:si>
-    <x:t>3589</x:t>
+    <x:t>3590</x:t>
   </x:si>
   <x:si>
     <x:t>3806</x:t>
@@ -262,7 +262,7 @@
     <x:t>1176</x:t>
   </x:si>
   <x:si>
-    <x:t>1289</x:t>
+    <x:t>1287</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -49,16 +49,16 @@
     <x:t>509</x:t>
   </x:si>
   <x:si>
-    <x:t>845</x:t>
+    <x:t>848</x:t>
   </x:si>
   <x:si>
     <x:t>1519</x:t>
   </x:si>
   <x:si>
-    <x:t>1783</x:t>
-  </x:si>
-  <x:si>
-    <x:t>723</x:t>
+    <x:t>1784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>724</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
@@ -70,13 +70,13 @@
     <x:t>1038</x:t>
   </x:si>
   <x:si>
-    <x:t>3200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6433</x:t>
+    <x:t>3199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6435</x:t>
   </x:si>
   <x:si>
     <x:t>3644</x:t>
@@ -127,25 +127,25 @@
     <x:t>336</x:t>
   </x:si>
   <x:si>
-    <x:t>401</x:t>
+    <x:t>402</x:t>
   </x:si>
   <x:si>
     <x:t>137</x:t>
   </x:si>
   <x:si>
-    <x:t>685</x:t>
+    <x:t>686</x:t>
   </x:si>
   <x:si>
     <x:t>496</x:t>
   </x:si>
   <x:si>
-    <x:t>720</x:t>
+    <x:t>721</x:t>
   </x:si>
   <x:si>
     <x:t>897</x:t>
   </x:si>
   <x:si>
-    <x:t>558</x:t>
+    <x:t>559</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -157,10 +157,10 @@
     <x:t>654</x:t>
   </x:si>
   <x:si>
-    <x:t>1245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1555</x:t>
+    <x:t>1247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1556</x:t>
   </x:si>
   <x:si>
     <x:t>866</x:t>
@@ -172,10 +172,10 @@
     <x:t>2025</x:t>
   </x:si>
   <x:si>
-    <x:t>3590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3806</x:t>
+    <x:t>3591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3810</x:t>
   </x:si>
   <x:si>
     <x:t>2258</x:t>
@@ -244,7 +244,7 @@
     <x:t>168</x:t>
   </x:si>
   <x:si>
-    <x:t>369</x:t>
+    <x:t>368</x:t>
   </x:si>
   <x:si>
     <x:t>473</x:t>
@@ -256,13 +256,13 @@
     <x:t>241</x:t>
   </x:si>
   <x:si>
-    <x:t>628</x:t>
+    <x:t>630</x:t>
   </x:si>
   <x:si>
     <x:t>1176</x:t>
   </x:si>
   <x:si>
-    <x:t>1287</x:t>
+    <x:t>1288</x:t>
   </x:si>
   <x:si>
     <x:t>593</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -76,7 +76,7 @@
     <x:t>5294</x:t>
   </x:si>
   <x:si>
-    <x:t>6435</x:t>
+    <x:t>6436</x:t>
   </x:si>
   <x:si>
     <x:t>3644</x:t>
@@ -142,7 +142,7 @@
     <x:t>721</x:t>
   </x:si>
   <x:si>
-    <x:t>897</x:t>
+    <x:t>898</x:t>
   </x:si>
   <x:si>
     <x:t>559</x:t>
@@ -169,13 +169,13 @@
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>2025</x:t>
+    <x:t>2026</x:t>
   </x:si>
   <x:si>
     <x:t>3591</x:t>
   </x:si>
   <x:si>
-    <x:t>3810</x:t>
+    <x:t>3811</x:t>
   </x:si>
   <x:si>
     <x:t>2258</x:t>
@@ -199,13 +199,16 @@
     <x:t>8</x:t>
   </x:si>
   <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>377</x:t>
+    <x:t>380</x:t>
   </x:si>
   <x:si>
     <x:t>527</x:t>
@@ -220,7 +223,7 @@
     <x:t>44</x:t>
   </x:si>
   <x:si>
-    <x:t>446</x:t>
+    <x:t>447</x:t>
   </x:si>
   <x:si>
     <x:t>1153</x:t>
@@ -933,10 +936,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>15</x:v>
@@ -944,25 +947,25 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>15</x:v>
@@ -970,25 +973,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>15</x:v>
@@ -996,25 +999,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>15</x:v>
@@ -1022,25 +1025,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -46,19 +46,19 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>848</x:t>
+    <x:t>508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>850</x:t>
   </x:si>
   <x:si>
     <x:t>1519</x:t>
   </x:si>
   <x:si>
-    <x:t>1784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>724</x:t>
+    <x:t>1785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>725</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
@@ -67,19 +67,19 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3644</x:t>
+    <x:t>1039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3645</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -100,7 +100,7 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>188</x:t>
+    <x:t>189</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
@@ -124,10 +124,10 @@
     <x:t>256</x:t>
   </x:si>
   <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>402</x:t>
+    <x:t>337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403</x:t>
   </x:si>
   <x:si>
     <x:t>137</x:t>
@@ -145,7 +145,7 @@
     <x:t>898</x:t>
   </x:si>
   <x:si>
-    <x:t>559</x:t>
+    <x:t>558</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -157,7 +157,7 @@
     <x:t>654</x:t>
   </x:si>
   <x:si>
-    <x:t>1247</x:t>
+    <x:t>1249</x:t>
   </x:si>
   <x:si>
     <x:t>1556</x:t>
@@ -169,16 +169,16 @@
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>2026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3811</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2258</x:t>
+    <x:t>2027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2260</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -190,9 +190,6 @@
     <x:t>41</x:t>
   </x:si>
   <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
@@ -256,19 +253,19 @@
     <x:t>212</x:t>
   </x:si>
   <x:si>
-    <x:t>241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>630</x:t>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>632</x:t>
   </x:si>
   <x:si>
     <x:t>1176</x:t>
   </x:si>
   <x:si>
-    <x:t>1288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>593</x:t>
+    <x:t>1290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -910,10 +907,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>15</x:v>
@@ -927,19 +924,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="s">
-        <x:v>60</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>15</x:v>
@@ -947,25 +944,25 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D12" s="1" t="s">
+      <x:c r="E12" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E12" s="1" t="s">
+      <x:c r="F12" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="F12" s="1" t="s">
+      <x:c r="G12" s="1" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>15</x:v>
@@ -973,25 +970,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>15</x:v>
@@ -999,25 +996,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
+      <x:c r="G14" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>15</x:v>
@@ -1025,25 +1022,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>84</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -67,16 +67,16 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>1039</x:t>
+    <x:t>1040</x:t>
   </x:si>
   <x:si>
     <x:t>3201</x:t>
   </x:si>
   <x:si>
-    <x:t>5300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6439</x:t>
+    <x:t>5302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6441</x:t>
   </x:si>
   <x:si>
     <x:t>3645</x:t>
@@ -157,10 +157,10 @@
     <x:t>654</x:t>
   </x:si>
   <x:si>
-    <x:t>1249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1556</x:t>
+    <x:t>1250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1557</x:t>
   </x:si>
   <x:si>
     <x:t>866</x:t>
@@ -175,7 +175,7 @@
     <x:t>3595</x:t>
   </x:si>
   <x:si>
-    <x:t>3814</x:t>
+    <x:t>3818</x:t>
   </x:si>
   <x:si>
     <x:t>2260</x:t>
@@ -262,7 +262,7 @@
     <x:t>1176</x:t>
   </x:si>
   <x:si>
-    <x:t>1290</x:t>
+    <x:t>1291</x:t>
   </x:si>
   <x:si>
     <x:t>594</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -73,13 +73,13 @@
     <x:t>3201</x:t>
   </x:si>
   <x:si>
-    <x:t>5302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3645</x:t>
+    <x:t>5306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6443</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3647</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -118,10 +118,10 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256</x:t>
+    <x:t>488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -139,10 +139,10 @@
     <x:t>496</x:t>
   </x:si>
   <x:si>
-    <x:t>721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>898</x:t>
+    <x:t>722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>897</x:t>
   </x:si>
   <x:si>
     <x:t>558</x:t>
@@ -160,7 +160,7 @@
     <x:t>1250</x:t>
   </x:si>
   <x:si>
-    <x:t>1557</x:t>
+    <x:t>1559</x:t>
   </x:si>
   <x:si>
     <x:t>866</x:t>
@@ -172,7 +172,7 @@
     <x:t>2027</x:t>
   </x:si>
   <x:si>
-    <x:t>3595</x:t>
+    <x:t>3598</x:t>
   </x:si>
   <x:si>
     <x:t>3818</x:t>
@@ -241,7 +241,7 @@
     <x:t>71</x:t>
   </x:si>
   <x:si>
-    <x:t>168</x:t>
+    <x:t>169</x:t>
   </x:si>
   <x:si>
     <x:t>368</x:t>
@@ -262,7 +262,7 @@
     <x:t>1176</x:t>
   </x:si>
   <x:si>
-    <x:t>1291</x:t>
+    <x:t>1293</x:t>
   </x:si>
   <x:si>
     <x:t>594</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2024.xlsx
@@ -58,7 +58,7 @@
     <x:t>1785</x:t>
   </x:si>
   <x:si>
-    <x:t>725</x:t>
+    <x:t>726</x:t>
   </x:si>
   <x:si>
     <x:t>0</x:t>
@@ -70,10 +70,10 @@
     <x:t>1040</x:t>
   </x:si>
   <x:si>
-    <x:t>3201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5306</x:t>
+    <x:t>3202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5308</x:t>
   </x:si>
   <x:si>
     <x:t>6443</x:t>
@@ -124,7 +124,7 @@
     <x:t>258</x:t>
   </x:si>
   <x:si>
-    <x:t>337</x:t>
+    <x:t>338</x:t>
   </x:si>
   <x:si>
     <x:t>403</x:t>
@@ -160,10 +160,10 @@
     <x:t>1250</x:t>
   </x:si>
   <x:si>
-    <x:t>1559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>866</x:t>
+    <x:t>1560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>867</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
@@ -172,13 +172,13 @@
     <x:t>2027</x:t>
   </x:si>
   <x:si>
-    <x:t>3598</x:t>
+    <x:t>3600</x:t>
   </x:si>
   <x:si>
     <x:t>3818</x:t>
   </x:si>
   <x:si>
-    <x:t>2260</x:t>
+    <x:t>2261</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -229,7 +229,7 @@
     <x:t>166</x:t>
   </x:si>
   <x:si>
-    <x:t>185</x:t>
+    <x:t>186</x:t>
   </x:si>
   <x:si>
     <x:t>144</x:t>
